--- a/src/test/java/resources/Baskent.xlsx
+++ b/src/test/java/resources/Baskent.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>Ulke</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>aaa</t>
+  </si>
+  <si>
+    <t>dlt</t>
   </si>
 </sst>
 </file>
@@ -400,8 +403,8 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>26</v>
+      <c r="C4" t="n" s="0">
+        <v>54000.0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -429,6 +432,9 @@
       </c>
       <c r="B7" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/src/test/java/resources/Baskent.xlsx
+++ b/src/test/java/resources/Baskent.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
   <si>
     <t>Ulke</t>
   </si>
